--- a/static/doc/GenShin数据字典.xlsx
+++ b/static/doc/GenShin数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23160" windowHeight="11580"/>
+    <workbookView windowWidth="15375" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>GenShin</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>G_METHOD</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>SYS_USER</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>SYS_DATE</t>
   </si>
 </sst>
 </file>
@@ -69,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,6 +109,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -106,6 +140,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,8 +170,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,7 +209,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,17 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,68 +247,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,41 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,8 +474,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,23 +537,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,148 +558,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1088,6 +1106,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/doc/GenShin数据字典.xlsx
+++ b/static/doc/GenShin数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="11535"/>
+    <workbookView windowWidth="16920" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>GenShin</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>G_TYPE</t>
+  </si>
+  <si>
+    <t>属性（七元素）</t>
+  </si>
+  <si>
+    <t>G_ATTRIBUTE</t>
   </si>
   <si>
     <t>是否限定（Y限定，N常驻）</t>
@@ -87,8 +93,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -109,22 +115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -140,7 +130,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +159,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -163,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,8 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,15 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,51 +258,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,37 +268,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +406,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,121 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,17 +462,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +510,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,41 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,145 +567,145 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1130,6 +1136,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/static/doc/GenShin数据字典.xlsx
+++ b/static/doc/GenShin数据字典.xlsx
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
